--- a/RegressionTests/NeuralNetClassifier_Unit_Test_3/aptrans_601597_pass.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_3/aptrans_601597_pass.xlsx
@@ -290,10 +290,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -322,7 +322,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -373,11 +373,14 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1173,7 +1176,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -1210,16 +1213,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1419,7 +1422,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -1456,16 +1459,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1667,7 +1670,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -1704,16 +1707,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1967,7 +1970,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -2004,16 +2007,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2213,7 +2216,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -2250,16 +2253,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2459,7 +2462,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -2496,16 +2499,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
